--- a/智能手机应用开发/智能手机.xlsx
+++ b/智能手机应用开发/智能手机.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\智能手机应用开发\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071FF75-4A81-422D-B1FB-5403A2315625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2304D6-A864-40CE-A151-AF698098B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,18 +109,12 @@
     <t>有效</t>
   </si>
   <si>
-    <t>选择题</t>
-  </si>
-  <si>
     <t>关于BaseAdapter说法错误的是</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>BaseAdapter是自定义的数据适配器 | BaseAdapter是抽象的类 我们主要实现getCount方法和getView方法 | BaseAdapter的getCount()方法的作用是返回Listview一共有多少个条目显示出来 | BaseAdapter不是抽象的 可以直接使用</t>
-  </si>
-  <si>
     <t>关于Listview下列说法正确的是</t>
   </si>
   <si>
@@ -161,9 +155,6 @@
   </si>
   <si>
     <t>A.getView() | B.getItem() | C.getItemView() | D.getItemId()</t>
-  </si>
-  <si>
-    <t>BaseAdapter是抽象类，我们主要实现getCount()方法和getView()方法 | BaseAdapter是自定义的数据适配器 | BaseAdapter不是抽象类，可以直接使用 | BaseAdapter的getCount()方法的作用是返回ListView一共有多少个条目显示出来</t>
   </si>
   <si>
     <t>以下Fragment说法错误的是</t>
@@ -529,15 +520,9 @@
     <t>一个应用程序默认会包含多少个 Activity？</t>
   </si>
   <si>
-    <t>1 个 | 5 个 | 10 个 | 若干个</t>
-  </si>
-  <si>
     <t>下列方法中，Activity 第一次启动到关闭不会执行的是（）。</t>
   </si>
   <si>
-    <t>onCreate() | onStart() | onResume() | onRestart()</t>
-  </si>
-  <si>
     <t>下列组件中，不能使用 Intent 启动的是（ ）。</t>
   </si>
   <si>
@@ -545,9 +530,6 @@
   </si>
   <si>
     <t>startActivityForResult()方法接收两个参数，第一个是Intent，第二个是（ ）。</t>
-  </si>
-  <si>
-    <t>resultCode | request | requestCode | data</t>
   </si>
   <si>
     <t>下列关于 Activity 的描述，错误的是（ ）。</t>
@@ -816,9 +798,6 @@
     <t>继承 ContentProvider 类必须重写它的什么方法？</t>
   </si>
   <si>
-    <t>delete() | insert() | onStart() | onUpdate()</t>
-  </si>
-  <si>
     <t>下列关于内容观察者的说法，正确的是（ ）。</t>
   </si>
   <si>
@@ -880,9 +859,6 @@
   </si>
   <si>
     <t>继承 BroadcastReceiver 会重写哪一个方法？</t>
-  </si>
-  <si>
-    <t>onReceive() | onUpdate() | onCreate() | onStart()</t>
   </si>
   <si>
     <t>关于广播的作用，说法正确的是（ ）。</t>
@@ -1169,6 +1145,38 @@
   </si>
   <si>
     <t>智能手机应用开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.onCreate() | B.onStart() | C.onResume() | D.onRestart()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.1 个 | B.5 个 | C.10 个 | D.若干个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.resultCode | B.request | C.requestCode | D.data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.delete() | B.insert() | C.onStart() | D.onUpdate()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.onReceive() | B.onUpdate() | C.onCreate() | D.onStart()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.BaseAdapter是自定义的数据适配器 | B.BaseAdapter是抽象的类 我们主要实现getCount方法和getView方法 | C.BaseAdapter的getCount()方法的作用是返回Listview一共有多少个条目显示出来 | D.BaseAdapter不是抽象的 可以直接使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.BaseAdapter是抽象类，我们主要实现getCount()方法和getView()方法 | B.BaseAdapter是自定义的数据适配器 | C.BaseAdapter不是抽象类，可以直接使用 | D.BaseAdapter的getCount()方法的作用是返回ListView一共有多少个条目显示出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1527,8 +1535,8 @@
   <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C187" sqref="C187:C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1588,7 +1596,7 @@
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -1611,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1625,16 +1633,16 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1648,16 +1656,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1671,16 +1679,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1694,16 +1702,16 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1717,16 +1725,16 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1740,16 +1748,16 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1763,16 +1771,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1786,16 +1794,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1809,16 +1817,16 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1832,16 +1840,16 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1855,16 +1863,16 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1878,16 +1886,16 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1901,16 +1909,16 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="G16" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1924,16 +1932,16 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>358</v>
       </c>
       <c r="G17" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1947,16 +1955,16 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1970,16 +1978,16 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="G19" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1993,16 +2001,16 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -2016,16 +2024,16 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -2039,16 +2047,16 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -2062,16 +2070,16 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -2085,16 +2093,16 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -2108,16 +2116,16 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -2131,16 +2139,16 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -2154,16 +2162,16 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -2177,16 +2185,16 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -2200,16 +2208,16 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -2223,16 +2231,16 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G30" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -2246,16 +2254,16 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G31" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -2269,16 +2277,16 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2292,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="G33" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -2315,16 +2323,16 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -2338,16 +2346,16 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="G35" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2361,16 +2369,16 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -2384,16 +2392,16 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -2407,16 +2415,16 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G38" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -2430,16 +2438,16 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G39" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -2453,16 +2461,16 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2476,16 +2484,16 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G41" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2499,16 +2507,16 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G42" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2522,16 +2530,16 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G43" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -2545,16 +2553,16 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2565,16 +2573,16 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2585,16 +2593,16 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G46" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2605,16 +2613,16 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G47" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2625,16 +2633,16 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G48" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -2645,16 +2653,16 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G49" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2665,16 +2673,16 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2685,16 +2693,16 @@
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G51" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2705,16 +2713,16 @@
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E52" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2725,16 +2733,16 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2745,16 +2753,16 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G54" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2765,16 +2773,16 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -2785,16 +2793,16 @@
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G56" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2805,16 +2813,16 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E57" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G57" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2825,16 +2833,16 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G58" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2848,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="D59" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E59" t="s">
         <v>13</v>
@@ -2857,7 +2865,7 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -2871,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -2880,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -2894,7 +2902,7 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E61" t="s">
         <v>15</v>
@@ -2903,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2917,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -2926,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2940,7 +2948,7 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E63" t="s">
         <v>15</v>
@@ -2949,7 +2957,7 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2963,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
@@ -2972,7 +2980,7 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2986,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -2995,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -3009,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
@@ -3018,7 +3026,7 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -3032,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -3041,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -3055,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E68" t="s">
         <v>13</v>
@@ -3064,7 +3072,7 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -3078,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -3087,7 +3095,7 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -3101,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
@@ -3110,7 +3118,7 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -3124,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -3133,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -3147,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E72" t="s">
         <v>15</v>
@@ -3156,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -3170,7 +3178,7 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E73" t="s">
         <v>15</v>
@@ -3179,7 +3187,7 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -3193,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -3202,7 +3210,7 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -3216,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E75" t="s">
         <v>13</v>
@@ -3225,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -3239,7 +3247,7 @@
         <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E76" t="s">
         <v>15</v>
@@ -3248,7 +3256,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -3262,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E77" t="s">
         <v>13</v>
@@ -3271,7 +3279,7 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -3285,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E78" t="s">
         <v>13</v>
@@ -3294,7 +3302,7 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -3308,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E79" t="s">
         <v>15</v>
@@ -3317,7 +3325,7 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -3331,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -3340,7 +3348,7 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -3354,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
@@ -3363,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -3377,7 +3385,7 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E82" t="s">
         <v>13</v>
@@ -3386,7 +3394,7 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -3400,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E83" t="s">
         <v>15</v>
@@ -3409,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -3423,7 +3431,7 @@
         <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E84" t="s">
         <v>15</v>
@@ -3432,7 +3440,7 @@
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -3446,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
@@ -3455,7 +3463,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -3469,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -3478,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -3492,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -3501,7 +3509,7 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -3515,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
@@ -3524,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -3538,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="D89" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
@@ -3547,7 +3555,7 @@
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -3561,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -3570,7 +3578,7 @@
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -3584,7 +3592,7 @@
         <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -3593,7 +3601,7 @@
         <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -3607,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -3616,7 +3624,7 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -3630,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E93" t="s">
         <v>13</v>
@@ -3639,7 +3647,7 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -3653,7 +3661,7 @@
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E94" t="s">
         <v>13</v>
@@ -3662,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -3676,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
@@ -3685,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -3699,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
@@ -3708,7 +3716,7 @@
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -3722,16 +3730,16 @@
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E97" t="s">
         <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G97" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -3745,16 +3753,16 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E98" t="s">
         <v>13</v>
       </c>
       <c r="F98" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G98" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -3768,16 +3776,16 @@
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E99" t="s">
         <v>15</v>
       </c>
       <c r="F99" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G99" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -3791,16 +3799,16 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E100" t="s">
         <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G100" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -3814,16 +3822,16 @@
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G101" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -3837,16 +3845,16 @@
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G102" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -3860,16 +3868,16 @@
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E103" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G103" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -3883,16 +3891,16 @@
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E104" t="s">
         <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G104" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -3906,16 +3914,16 @@
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E105" t="s">
         <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G105" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -3929,16 +3937,16 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E106" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G106" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -3952,7 +3960,7 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E107" t="s">
         <v>15</v>
@@ -3961,7 +3969,7 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -3975,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E108" t="s">
         <v>15</v>
@@ -3984,7 +3992,7 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -4007,7 +4015,7 @@
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -4027,7 +4035,7 @@
         <v>21</v>
       </c>
       <c r="G110" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -4047,7 +4055,7 @@
         <v>25</v>
       </c>
       <c r="G111" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -4067,7 +4075,7 @@
         <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -4081,13 +4089,13 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G113" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -4101,13 +4109,13 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G114" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -4121,13 +4129,13 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E115" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G115" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -4141,13 +4149,13 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G116" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -4161,13 +4169,13 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E117" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G117" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -4181,13 +4189,13 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E118" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G118" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -4201,13 +4209,13 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E119" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G119" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -4221,13 +4229,13 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E120" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G120" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -4241,13 +4249,13 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E121" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G121" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -4261,13 +4269,13 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E122" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G122" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -4281,13 +4289,13 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E123" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G123" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -4301,13 +4309,13 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E124" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G124" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -4321,13 +4329,13 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E125" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G125" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -4341,13 +4349,13 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E126" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G126" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -4361,13 +4369,13 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E127" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G127" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -4381,13 +4389,13 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E128" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G128" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -4401,13 +4409,13 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E129" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G129" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -4421,13 +4429,13 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E130" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G130" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -4441,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E131" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G131" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
@@ -4461,13 +4469,13 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E132" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G132" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -4481,13 +4489,13 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E133" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G133" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -4501,13 +4509,13 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E134" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G134" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -4521,13 +4529,13 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E135" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G135" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -4541,13 +4549,13 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G136" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -4561,13 +4569,13 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E137" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G137" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -4581,13 +4589,13 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E138" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G138" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -4601,13 +4609,13 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E139" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G139" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -4621,13 +4629,13 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G140" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -4641,13 +4649,13 @@
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E141" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G141" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -4661,13 +4669,13 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E142" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G142" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -4681,13 +4689,13 @@
         <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E143" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G143" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -4701,13 +4709,13 @@
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E144" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G144" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -4721,13 +4729,13 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E145" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G145" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -4741,13 +4749,13 @@
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E146" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G146" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -4761,13 +4769,13 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E147" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G147" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -4781,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E148" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G148" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -4801,13 +4809,13 @@
         <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E149" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G149" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -4821,13 +4829,13 @@
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E150" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G150" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -4841,13 +4849,13 @@
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E151" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G151" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -4861,13 +4869,13 @@
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E152" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G152" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -4881,13 +4889,13 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E153" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G153" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -4901,13 +4909,13 @@
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E154" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G154" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -4921,13 +4929,13 @@
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E155" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G155" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -4941,13 +4949,13 @@
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E156" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G156" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -4961,13 +4969,13 @@
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E157" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G157" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -4981,13 +4989,13 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E158" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G158" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -5001,13 +5009,13 @@
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E159" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G159" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -5021,13 +5029,13 @@
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E160" t="s">
         <v>21</v>
       </c>
       <c r="G160" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -5041,13 +5049,13 @@
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E161" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G161" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
@@ -5061,13 +5069,13 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E162" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G162" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -5081,13 +5089,13 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E163" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G163" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -5101,13 +5109,13 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E164" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G164" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -5121,13 +5129,13 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E165" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G165" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -5141,13 +5149,13 @@
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E166" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G166" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -5161,13 +5169,13 @@
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E167" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G167" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -5181,13 +5189,13 @@
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E168" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G168" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -5201,13 +5209,13 @@
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E169" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G169" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.15">
@@ -5221,13 +5229,13 @@
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E170" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G170" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.15">
@@ -5241,13 +5249,13 @@
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E171" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G171" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.15">
@@ -5261,13 +5269,13 @@
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E172" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G172" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.15">
@@ -5281,13 +5289,13 @@
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E173" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G173" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.15">
@@ -5301,13 +5309,13 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E174" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G174" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.15">
@@ -5321,13 +5329,13 @@
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E175" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G175" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.15">
@@ -5341,13 +5349,13 @@
         <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E176" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G176" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.15">
@@ -5361,13 +5369,13 @@
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E177" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G177" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.15">
@@ -5381,13 +5389,13 @@
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E178" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G178" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.15">
@@ -5401,13 +5409,13 @@
         <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E179" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G179" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.15">
@@ -5421,13 +5429,13 @@
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E180" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G180" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.15">
@@ -5441,13 +5449,13 @@
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E181" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G181" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.15">
@@ -5461,13 +5469,13 @@
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E182" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G182" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.15">
@@ -5481,13 +5489,13 @@
         <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E183" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G183" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.15">
@@ -5501,13 +5509,13 @@
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E184" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G184" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.15">
@@ -5521,13 +5529,13 @@
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E185" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G185" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
@@ -5541,13 +5549,13 @@
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E186" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G186" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.15">
@@ -5558,19 +5566,19 @@
         <v>28</v>
       </c>
       <c r="C187" t="s">
+        <v>365</v>
+      </c>
+      <c r="D187" t="s">
         <v>29</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>30</v>
       </c>
-      <c r="E187" t="s">
-        <v>31</v>
-      </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="G187" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
@@ -5581,19 +5589,19 @@
         <v>28</v>
       </c>
       <c r="C188" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D188" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
@@ -5604,19 +5612,19 @@
         <v>28</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D189" t="s">
+        <v>33</v>
+      </c>
+      <c r="E189" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" t="s">
         <v>35</v>
       </c>
-      <c r="E189" t="s">
-        <v>36</v>
-      </c>
-      <c r="F189" t="s">
-        <v>37</v>
-      </c>
       <c r="G189" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
@@ -5627,19 +5635,19 @@
         <v>28</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D190" t="s">
+        <v>36</v>
+      </c>
+      <c r="E190" t="s">
+        <v>37</v>
+      </c>
+      <c r="F190" t="s">
         <v>38</v>
       </c>
-      <c r="E190" t="s">
-        <v>39</v>
-      </c>
-      <c r="F190" t="s">
-        <v>40</v>
-      </c>
       <c r="G190" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
@@ -5650,19 +5658,19 @@
         <v>28</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
@@ -5673,19 +5681,19 @@
         <v>28</v>
       </c>
       <c r="C192" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D192" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
@@ -5696,19 +5704,19 @@
         <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
       </c>
       <c r="F193" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
@@ -5719,19 +5727,19 @@
         <v>28</v>
       </c>
       <c r="C194" t="s">
+        <v>365</v>
+      </c>
+      <c r="D194" t="s">
         <v>29</v>
       </c>
-      <c r="D194" t="s">
-        <v>30</v>
-      </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F194" t="s">
-        <v>47</v>
+        <v>364</v>
       </c>
       <c r="G194" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
@@ -5742,19 +5750,19 @@
         <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D195" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F195" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G195" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.15">
@@ -5765,19 +5773,19 @@
         <v>28</v>
       </c>
       <c r="C196" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D196" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G196" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.15">
@@ -5788,19 +5796,19 @@
         <v>28</v>
       </c>
       <c r="C197" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D197" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
       </c>
       <c r="F197" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G197" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.15">
@@ -5811,19 +5819,19 @@
         <v>28</v>
       </c>
       <c r="C198" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D198" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G198" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.15">
@@ -5834,19 +5842,19 @@
         <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D199" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F199" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G199" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.15">
@@ -5857,19 +5865,19 @@
         <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D200" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F200" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G200" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
